--- a/ana/dados.xlsx
+++ b/ana/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anama_jb0tmfn\OneDrive\Documentos\CODE\python\tecstorm_website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anama_jb0tmfn\Desktop\tecstorm\LowVoltinite\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{8E98E87E-19FB-424B-B7C8-EA8D27E431EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{84F5E2EF-3AB8-4FD0-80C5-88820595F9E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477CEA58-7F90-4A80-9A98-94980BA1E0EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{13821183-B77C-4831-A027-C0941ECFC023}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{13821183-B77C-4831-A027-C0941ECFC023}"/>
   </bookViews>
   <sheets>
     <sheet name="dados2" sheetId="1" r:id="rId1"/>
@@ -111,11 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68EF403-6A7D-464C-B558-3C027579E423}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A97"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1231,7 @@
         <v>22</v>
       </c>
       <c r="C72">
-        <v>108.04761904761899</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1263,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>112.590476190476</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,7 +1274,7 @@
       <c r="B76">
         <v>2</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="4">
         <v>114.104761904762</v>
       </c>
     </row>
@@ -1285,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>115.619047619047</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1307,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="C79">
-        <v>118.647619047619</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="C81">
-        <v>121.67619047619</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,7 +1374,7 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>127.73333333333299</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="C88">
-        <v>132.27619047619001</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1439,7 +1440,7 @@
         <v>17</v>
       </c>
       <c r="C91">
-        <v>136.81904761904701</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,7 +1462,7 @@
         <v>19</v>
       </c>
       <c r="C93">
-        <v>139.84761904761899</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,7 +1473,7 @@
         <v>20</v>
       </c>
       <c r="C94">
-        <v>141.36190476190399</v>
+        <v>141.19999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1487,29 +1488,14 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>43469</v>
-      </c>
-      <c r="B96">
-        <v>22</v>
-      </c>
-      <c r="C96">
-        <v>144.39047619047599</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>43469</v>
-      </c>
-      <c r="B97">
-        <v>23</v>
-      </c>
-      <c r="C97">
-        <v>145.90476190476099</v>
-      </c>
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1517,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BFE38C-BC93-4F7F-AF01-DE72AB316E28}">
   <dimension ref="A1:I207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H198" sqref="H198"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
